--- a/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77CCC58-963D-4E8C-A7CA-97DA433575B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D961CCCD-C107-46E4-9E35-A364A0A4B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{607E0103-E5DA-458A-8892-F36C403AB414}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA5F11CA-4B99-4D08-9741-D20B28F94364}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,433 +77,433 @@
     <t>19,27%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>78,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
   </si>
   <si>
     <t>77,77%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>80,57%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
   </si>
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
@@ -512,187 +512,199 @@
     <t>18,48%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
   </si>
   <si>
     <t>81,52%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>77,11%</t>
   </si>
   <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>14,95%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>16,97%</t>
   </si>
   <si>
     <t>83,24%</t>
   </si>
   <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>83,03%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>21,19%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>75,25%</t>
   </si>
   <si>
-    <t>78,81%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>20,01%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>79,99%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
   </si>
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
@@ -701,217 +713,211 @@
     <t>25,14%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>25,84%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
+    <t>74,16%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C7C7E4-7CB3-4031-A919-9A5FC8775E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF1F3F2-9692-4A93-B827-764143164BA3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1638,7 +1644,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1659,13 @@
         <v>1410578</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
@@ -1668,13 +1674,13 @@
         <v>1210286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2561</v>
@@ -1683,13 +1689,13 @@
         <v>2620863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1751,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1763,13 @@
         <v>79608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -1772,13 +1778,13 @@
         <v>106095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -1787,13 +1793,13 @@
         <v>185703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1814,13 @@
         <v>471800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -1823,13 +1829,13 @@
         <v>370317</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>805</v>
@@ -1838,13 +1844,13 @@
         <v>842117</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1918,13 @@
         <v>560346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>803</v>
@@ -1927,13 +1933,13 @@
         <v>824009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1352</v>
@@ -1942,13 +1948,13 @@
         <v>1384355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1969,13 @@
         <v>2715312</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2493</v>
@@ -1978,13 +1984,13 @@
         <v>2554248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5157</v>
@@ -1993,13 +1999,13 @@
         <v>5269561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2061,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C28C23-8AD9-46B3-A5B3-26E0D162E67F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB20C6-CE45-4D1C-A436-906C29BE9AD6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2091,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2198,13 +2204,13 @@
         <v>250948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>384</v>
@@ -2213,13 +2219,13 @@
         <v>409807</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -2228,7 +2234,7 @@
         <v>660755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>94</v>
@@ -2249,13 +2255,13 @@
         <v>722968</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>862</v>
@@ -2264,13 +2270,13 @@
         <v>927031</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1538</v>
@@ -2279,13 +2285,13 @@
         <v>1649999</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2359,13 @@
         <v>385418</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -2368,13 +2374,13 @@
         <v>453193</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>786</v>
@@ -2383,13 +2389,13 @@
         <v>838611</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2410,13 @@
         <v>1576585</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1212</v>
@@ -2419,13 +2425,13 @@
         <v>1302463</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>2701</v>
@@ -2496,7 +2502,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2508,7 +2514,7 @@
         <v>69464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>121</v>
@@ -2559,7 +2565,7 @@
         <v>411717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>129</v>
@@ -2741,7 +2747,7 @@
         <v>4922</v>
       </c>
       <c r="N14" s="7">
-        <v>5285088</v>
+        <v>5285087</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>152</v>
@@ -2792,7 +2798,7 @@
         <v>6490</v>
       </c>
       <c r="N15" s="7">
-        <v>6968226</v>
+        <v>6968225</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2806,7 +2812,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AFD9F-08FB-4F36-B187-BD0DD50D4A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72609C39-4C6E-4CF1-BD5E-77EFF578037B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2952,10 +2958,10 @@
         <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -2964,13 +2970,13 @@
         <v>226995</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -2979,13 +2985,13 @@
         <v>366066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3006,13 @@
         <v>613283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>693</v>
@@ -3015,13 +3021,13 @@
         <v>764778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1311</v>
@@ -3030,13 +3036,13 @@
         <v>1378061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3110,13 @@
         <v>346859</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -3119,13 +3125,13 @@
         <v>394868</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>696</v>
@@ -3134,13 +3140,13 @@
         <v>741726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3161,13 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -3170,13 +3176,13 @@
         <v>1592548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>3157</v>
@@ -3185,13 +3191,13 @@
         <v>3315328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3253,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3259,13 +3265,13 @@
         <v>74892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -3274,13 +3280,13 @@
         <v>135255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -3289,13 +3295,13 @@
         <v>210147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3316,13 @@
         <v>470067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -3325,13 +3331,13 @@
         <v>411198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>828</v>
@@ -3340,13 +3346,13 @@
         <v>881265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,10 +3423,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>704</v>
@@ -3429,13 +3435,13 @@
         <v>757117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1230</v>
@@ -3444,13 +3450,13 @@
         <v>1317939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>2806130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>2617</v>
@@ -3480,13 +3486,13 @@
         <v>2768525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>5296</v>
@@ -3495,13 +3501,13 @@
         <v>5574654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,7 +3563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DEA07E-2BCE-4FF5-9B1F-FE8A1C842BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7816FBE7-9A2E-4CD2-9319-82B53D5ECA01}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,13 +3706,13 @@
         <v>136191</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>412</v>
@@ -3715,13 +3721,13 @@
         <v>240310</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>583</v>
@@ -3730,13 +3736,13 @@
         <v>376501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3757,13 @@
         <v>405443</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1011</v>
@@ -3766,13 +3772,13 @@
         <v>591016</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1531</v>
@@ -3781,13 +3787,13 @@
         <v>996459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3861,13 @@
         <v>406563</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>660</v>
@@ -3870,13 +3876,13 @@
         <v>597385</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>1043</v>
@@ -3885,13 +3891,13 @@
         <v>1003948</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3912,13 @@
         <v>1755459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
@@ -3921,13 +3927,13 @@
         <v>1647959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
@@ -3936,13 +3942,13 @@
         <v>3403418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +4004,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4010,13 +4016,13 @@
         <v>142554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -4025,13 +4031,13 @@
         <v>182502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>378</v>
@@ -4040,13 +4046,13 @@
         <v>325057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4067,13 @@
         <v>528546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
@@ -4076,13 +4082,13 @@
         <v>530441</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1305</v>
@@ -4091,13 +4097,13 @@
         <v>1058987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4171,13 @@
         <v>685308</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>1310</v>
@@ -4180,28 +4186,28 @@
         <v>1020197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>2004</v>
       </c>
       <c r="N13" s="7">
-        <v>1705505</v>
+        <v>1705506</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4222,13 @@
         <v>2689448</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>4034</v>
@@ -4231,13 +4237,13 @@
         <v>2769416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>6703</v>
@@ -4246,13 +4252,13 @@
         <v>5458864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4300,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7164369</v>
+        <v>7164370</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4308,7 +4314,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D961CCCD-C107-46E4-9E35-A364A0A4B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07646BA6-4AF1-433F-8E72-6C853C269DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA5F11CA-4B99-4D08-9741-D20B28F94364}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F42F46FF-5FAA-488A-8BDA-8B1DFD04E9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,793 +77,793 @@
     <t>19,27%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>78,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
   </si>
   <si>
     <t>20,31%</t>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF1F3F2-9692-4A93-B827-764143164BA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B068788C-31DB-471A-A1F3-98E6B7B0B188}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1620,7 +1620,7 @@
         <v>367</v>
       </c>
       <c r="I7" s="7">
-        <v>376447</v>
+        <v>376446</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1722,7 +1722,7 @@
         <v>1553</v>
       </c>
       <c r="I9" s="7">
-        <v>1586733</v>
+        <v>1586732</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1939,7 +1939,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>1352</v>
@@ -1948,13 +1948,13 @@
         <v>1384355</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1969,13 @@
         <v>2715312</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2493</v>
@@ -1984,13 +1984,13 @@
         <v>2554248</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5157</v>
@@ -1999,13 +1999,13 @@
         <v>5269561</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB20C6-CE45-4D1C-A436-906C29BE9AD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEAE008-06B8-40A0-AED2-FA0FFC89A420}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2097,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2204,13 +2204,13 @@
         <v>250948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>384</v>
@@ -2219,13 +2219,13 @@
         <v>409807</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -2234,13 +2234,13 @@
         <v>660755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2255,13 @@
         <v>722968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>862</v>
@@ -2270,13 +2270,13 @@
         <v>927031</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>1538</v>
@@ -2285,7 +2285,7 @@
         <v>1649999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>101</v>
@@ -2377,10 +2377,10 @@
         <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>786</v>
@@ -2389,13 +2389,13 @@
         <v>838611</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2410,13 @@
         <v>1576585</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1212</v>
@@ -2425,13 +2425,13 @@
         <v>1302463</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>2701</v>
@@ -2440,13 +2440,13 @@
         <v>2879048</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,10 +2517,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -2529,13 +2529,13 @@
         <v>114308</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -2544,13 +2544,13 @@
         <v>183772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,10 +2568,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2580,13 +2580,13 @@
         <v>344323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>683</v>
@@ -2595,13 +2595,13 @@
         <v>756040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,28 +2669,28 @@
         <v>705831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>906</v>
       </c>
       <c r="I13" s="7">
-        <v>977307</v>
+        <v>977308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>1568</v>
@@ -2699,13 +2699,13 @@
         <v>1683138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2720,13 @@
         <v>2711270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>2385</v>
@@ -2735,28 +2735,28 @@
         <v>2573817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>4922</v>
       </c>
       <c r="N14" s="7">
-        <v>5285087</v>
+        <v>5285088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2783,7 @@
         <v>3291</v>
       </c>
       <c r="I15" s="7">
-        <v>3551124</v>
+        <v>3551125</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2798,7 +2798,7 @@
         <v>6490</v>
       </c>
       <c r="N15" s="7">
-        <v>6968225</v>
+        <v>6968226</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72609C39-4C6E-4CF1-BD5E-77EFF578037B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58488628-A3D6-4940-B90A-FF71839A857B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2955,13 @@
         <v>139071</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -2970,13 +2970,13 @@
         <v>226995</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -2985,13 +2985,13 @@
         <v>366066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3006,13 @@
         <v>613283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>693</v>
@@ -3021,13 +3021,13 @@
         <v>764778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1311</v>
@@ -3036,13 +3036,13 @@
         <v>1378061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3110,13 @@
         <v>346859</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -3125,13 +3125,13 @@
         <v>394868</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>696</v>
@@ -3140,13 +3140,13 @@
         <v>741726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3161,13 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -3176,13 +3176,13 @@
         <v>1592548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>3157</v>
@@ -3191,13 +3191,13 @@
         <v>3315328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3265,13 @@
         <v>74892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -3280,13 +3280,13 @@
         <v>135255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -3295,13 +3295,13 @@
         <v>210147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3316,13 @@
         <v>470067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -3331,13 +3331,13 @@
         <v>411198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>828</v>
@@ -3346,13 +3346,13 @@
         <v>881265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,10 +3423,10 @@
         <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>704</v>
@@ -3435,13 +3435,13 @@
         <v>757117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>1230</v>
@@ -3450,13 +3450,13 @@
         <v>1317939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,40 +3474,40 @@
         <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>2617</v>
       </c>
       <c r="I14" s="7">
-        <v>2768525</v>
+        <v>2768524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>5296</v>
       </c>
       <c r="N14" s="7">
-        <v>5574654</v>
+        <v>5574655</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3534,7 @@
         <v>3321</v>
       </c>
       <c r="I15" s="7">
-        <v>3525642</v>
+        <v>3525641</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3549,7 +3549,7 @@
         <v>6526</v>
       </c>
       <c r="N15" s="7">
-        <v>6892593</v>
+        <v>6892594</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7816FBE7-9A2E-4CD2-9319-82B53D5ECA01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53325463-AF39-44CF-9B7A-138015ACB34A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3706,13 @@
         <v>136191</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>412</v>
@@ -3721,13 +3721,13 @@
         <v>240310</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>583</v>
@@ -3736,13 +3736,13 @@
         <v>376501</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3757,13 @@
         <v>405443</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1011</v>
@@ -3772,13 +3772,13 @@
         <v>591016</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1531</v>
@@ -3787,13 +3787,13 @@
         <v>996459</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3861,13 @@
         <v>406563</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>660</v>
@@ -3876,13 +3876,13 @@
         <v>597385</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>1043</v>
@@ -3891,13 +3891,13 @@
         <v>1003948</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3912,13 @@
         <v>1755459</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
@@ -3927,13 +3927,13 @@
         <v>1647959</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
@@ -3942,13 +3942,13 @@
         <v>3403418</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4016,13 @@
         <v>142554</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -4031,13 +4031,13 @@
         <v>182502</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>378</v>
@@ -4046,13 +4046,13 @@
         <v>325057</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4067,13 @@
         <v>528546</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
@@ -4082,13 +4082,13 @@
         <v>530441</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>1305</v>
@@ -4097,13 +4097,13 @@
         <v>1058987</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4314,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07646BA6-4AF1-433F-8E72-6C853C269DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27758349-815A-4ADD-B4EE-B7DDB71664B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F42F46FF-5FAA-488A-8BDA-8B1DFD04E9FA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F0B3AE61-932A-4197-9D3C-F44FCB3B09BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,628 +77,622 @@
     <t>19,27%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>21,42%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>21,19%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>75,25%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>78,81%</t>
   </si>
   <si>
     <t>80,75%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
@@ -707,217 +701,217 @@
     <t>25,14%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B068788C-31DB-471A-A1F3-98E6B7B0B188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD49203-183B-4940-AD83-2E8C688BF109}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1620,7 +1614,7 @@
         <v>367</v>
       </c>
       <c r="I7" s="7">
-        <v>376446</v>
+        <v>376447</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1644,7 +1638,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1653,13 @@
         <v>1410578</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
@@ -1674,13 +1668,13 @@
         <v>1210286</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2561</v>
@@ -1689,13 +1683,13 @@
         <v>2620863</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1716,7 @@
         <v>1553</v>
       </c>
       <c r="I9" s="7">
-        <v>1586732</v>
+        <v>1586733</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1751,7 +1745,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1757,13 @@
         <v>79608</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -1778,13 +1772,13 @@
         <v>106095</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -1793,13 +1787,13 @@
         <v>185703</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1808,13 @@
         <v>471800</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -1829,13 +1823,13 @@
         <v>370317</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>805</v>
@@ -1844,13 +1838,13 @@
         <v>842117</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1912,13 @@
         <v>560346</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>803</v>
@@ -1933,13 +1927,13 @@
         <v>824009</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>1352</v>
@@ -1948,13 +1942,13 @@
         <v>1384355</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1963,13 @@
         <v>2715312</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>2493</v>
@@ -1984,10 +1978,10 @@
         <v>2554248</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>81</v>
@@ -2080,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEAE008-06B8-40A0-AED2-FA0FFC89A420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E2CB44-BDD4-4348-8C9E-7E0B9AB05F6D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2204,13 +2198,13 @@
         <v>250948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>384</v>
@@ -2219,13 +2213,13 @@
         <v>409807</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -2234,13 +2228,13 @@
         <v>660755</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2249,13 @@
         <v>722968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>862</v>
@@ -2270,13 +2264,13 @@
         <v>927031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1538</v>
@@ -2285,13 +2279,13 @@
         <v>1649999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2353,13 @@
         <v>385418</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -2374,13 +2368,13 @@
         <v>453193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>786</v>
@@ -2389,13 +2383,13 @@
         <v>838611</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2404,13 @@
         <v>1576585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1212</v>
@@ -2425,13 +2419,13 @@
         <v>1302463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>2701</v>
@@ -2440,13 +2434,13 @@
         <v>2879048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2496,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2514,13 +2508,13 @@
         <v>69464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -2529,13 +2523,13 @@
         <v>114308</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -2544,13 +2538,13 @@
         <v>183772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2559,13 @@
         <v>411717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2580,13 +2574,13 @@
         <v>344323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>683</v>
@@ -2595,13 +2589,13 @@
         <v>756040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,28 +2663,28 @@
         <v>705831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>906</v>
       </c>
       <c r="I13" s="7">
-        <v>977308</v>
+        <v>977307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>1568</v>
@@ -2699,13 +2693,13 @@
         <v>1683138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2714,13 @@
         <v>2711270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>2385</v>
@@ -2735,13 +2729,13 @@
         <v>2573817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>4922</v>
@@ -2750,13 +2744,13 @@
         <v>5285088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2777,7 @@
         <v>3291</v>
       </c>
       <c r="I15" s="7">
-        <v>3551125</v>
+        <v>3551124</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2831,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58488628-A3D6-4940-B90A-FF71839A857B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1978CF4-2F2C-4C50-995A-9CF6E66718B8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2949,13 @@
         <v>139071</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -2970,13 +2964,13 @@
         <v>226995</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -2985,13 +2979,13 @@
         <v>366066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3000,13 @@
         <v>613283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>693</v>
@@ -3021,13 +3015,13 @@
         <v>764778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1311</v>
@@ -3036,13 +3030,13 @@
         <v>1378061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3104,13 @@
         <v>346859</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -3125,13 +3119,13 @@
         <v>394868</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>696</v>
@@ -3140,13 +3134,13 @@
         <v>741726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3155,13 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -3176,13 +3170,13 @@
         <v>1592548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>3157</v>
@@ -3191,13 +3185,13 @@
         <v>3315328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3247,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3259,13 @@
         <v>74892</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -3280,13 +3274,13 @@
         <v>135255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -3295,13 +3289,13 @@
         <v>210147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3310,13 @@
         <v>470067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -3331,10 +3325,10 @@
         <v>411198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>200</v>
@@ -3426,7 +3420,7 @@
         <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>704</v>
@@ -3435,13 +3429,13 @@
         <v>757117</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>1230</v>
@@ -3450,13 +3444,13 @@
         <v>1317939</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,43 +3465,43 @@
         <v>2806130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>2617</v>
       </c>
       <c r="I14" s="7">
-        <v>2768524</v>
+        <v>2768525</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>5296</v>
       </c>
       <c r="N14" s="7">
-        <v>5574655</v>
+        <v>5574654</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3528,7 @@
         <v>3321</v>
       </c>
       <c r="I15" s="7">
-        <v>3525641</v>
+        <v>3525642</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3549,7 +3543,7 @@
         <v>6526</v>
       </c>
       <c r="N15" s="7">
-        <v>6892594</v>
+        <v>6892593</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3582,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53325463-AF39-44CF-9B7A-138015ACB34A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18280AA3-91BF-43F6-83D1-3B68ECBDE377}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3700,13 @@
         <v>136191</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>412</v>
@@ -3721,13 +3715,13 @@
         <v>240310</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>583</v>
@@ -3736,13 +3730,13 @@
         <v>376501</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3751,13 @@
         <v>405443</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1011</v>
@@ -3772,13 +3766,13 @@
         <v>591016</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1531</v>
@@ -3787,13 +3781,13 @@
         <v>996459</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3855,13 @@
         <v>406563</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>660</v>
@@ -3876,13 +3870,13 @@
         <v>597385</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>1043</v>
@@ -3891,13 +3885,13 @@
         <v>1003948</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3906,13 @@
         <v>1755459</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
@@ -3927,13 +3921,13 @@
         <v>1647959</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
@@ -3942,13 +3936,13 @@
         <v>3403418</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,7 +3998,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4016,13 +4010,13 @@
         <v>142554</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -4031,13 +4025,13 @@
         <v>182502</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>378</v>
@@ -4046,13 +4040,13 @@
         <v>325057</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4061,13 @@
         <v>528546</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
@@ -4082,13 +4076,13 @@
         <v>530441</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1305</v>
@@ -4097,13 +4091,13 @@
         <v>1058987</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4165,13 @@
         <v>685308</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>1310</v>
@@ -4186,28 +4180,28 @@
         <v>1020197</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>2004</v>
       </c>
       <c r="N13" s="7">
-        <v>1705506</v>
+        <v>1705505</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4216,13 @@
         <v>2689448</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>4034</v>
@@ -4237,13 +4231,13 @@
         <v>2769416</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>6703</v>
@@ -4252,13 +4246,13 @@
         <v>5458864</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4294,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7164370</v>
+        <v>7164369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27758349-815A-4ADD-B4EE-B7DDB71664B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3EB097F-9879-4198-B924-107ECD9C25A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F0B3AE61-932A-4197-9D3C-F44FCB3B09BF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4EF56BAA-5761-42C5-954E-7C6E25C10A72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -698,220 +698,214 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>74,05%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD49203-183B-4940-AD83-2E8C688BF109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE79307-CA04-4983-B43D-438F93329C69}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1474,7 +1468,7 @@
         <v>538</v>
       </c>
       <c r="N4" s="7">
-        <v>540256</v>
+        <v>540255</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1576,7 +1570,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1960,7 +1954,7 @@
         <v>2664</v>
       </c>
       <c r="D14" s="7">
-        <v>2715312</v>
+        <v>2715313</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1990,7 +1984,7 @@
         <v>5157</v>
       </c>
       <c r="N14" s="7">
-        <v>5269561</v>
+        <v>5269560</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2011,7 +2005,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275658</v>
+        <v>3275659</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2041,7 +2035,7 @@
         <v>6509</v>
       </c>
       <c r="N15" s="7">
-        <v>6653916</v>
+        <v>6653915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E2CB44-BDD4-4348-8C9E-7E0B9AB05F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798B8FAF-6807-423A-BD77-1BFA1D651A6C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2535,7 +2529,7 @@
         <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>183772</v>
+        <v>183773</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>126</v>
@@ -2637,7 +2631,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2675,7 +2669,7 @@
         <v>906</v>
       </c>
       <c r="I13" s="7">
-        <v>977307</v>
+        <v>977308</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>140</v>
@@ -2741,7 +2735,7 @@
         <v>4922</v>
       </c>
       <c r="N14" s="7">
-        <v>5285088</v>
+        <v>5285087</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>152</v>
@@ -2777,7 +2771,7 @@
         <v>3291</v>
       </c>
       <c r="I15" s="7">
-        <v>3551124</v>
+        <v>3551125</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2792,7 +2786,7 @@
         <v>6490</v>
       </c>
       <c r="N15" s="7">
-        <v>6968226</v>
+        <v>6968225</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1978CF4-2F2C-4C50-995A-9CF6E66718B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D723EC-66DF-4394-895E-3F92070C9587}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3477,7 +3471,7 @@
         <v>2617</v>
       </c>
       <c r="I14" s="7">
-        <v>2768525</v>
+        <v>2768524</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>212</v>
@@ -3528,7 +3522,7 @@
         <v>3321</v>
       </c>
       <c r="I15" s="7">
-        <v>3525642</v>
+        <v>3525641</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3576,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18280AA3-91BF-43F6-83D1-3B68ECBDE377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13686B3-AD2E-463B-AD3D-2A9608391EB6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,7 +3691,7 @@
         <v>171</v>
       </c>
       <c r="D4" s="7">
-        <v>136191</v>
+        <v>132945</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>219</v>
@@ -3712,7 +3706,7 @@
         <v>412</v>
       </c>
       <c r="I4" s="7">
-        <v>240310</v>
+        <v>218968</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>222</v>
@@ -3727,16 +3721,16 @@
         <v>583</v>
       </c>
       <c r="N4" s="7">
-        <v>376501</v>
+        <v>351913</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,46 +3742,46 @@
         <v>520</v>
       </c>
       <c r="D5" s="7">
-        <v>405443</v>
+        <v>381993</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>1011</v>
       </c>
       <c r="I5" s="7">
-        <v>591016</v>
+        <v>532545</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>1531</v>
       </c>
       <c r="N5" s="7">
-        <v>996459</v>
+        <v>914538</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,7 +3793,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3808,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831326</v>
+        <v>751513</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3829,7 +3823,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372960</v>
+        <v>1266451</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3852,46 +3846,46 @@
         <v>383</v>
       </c>
       <c r="D7" s="7">
-        <v>406563</v>
+        <v>403857</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>660</v>
       </c>
       <c r="I7" s="7">
-        <v>597385</v>
+        <v>654950</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>1043</v>
       </c>
       <c r="N7" s="7">
-        <v>1003948</v>
+        <v>1058807</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,46 +3897,46 @@
         <v>1609</v>
       </c>
       <c r="D8" s="7">
-        <v>1755459</v>
+        <v>1886470</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
       </c>
       <c r="I8" s="7">
-        <v>1647959</v>
+        <v>1579278</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
       </c>
       <c r="N8" s="7">
-        <v>3403418</v>
+        <v>3465748</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3948,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3969,7 +3963,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2245344</v>
+        <v>2234228</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3984,7 +3978,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4407366</v>
+        <v>4524555</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4007,46 +4001,46 @@
         <v>140</v>
       </c>
       <c r="D10" s="7">
-        <v>142554</v>
+        <v>139419</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
       </c>
       <c r="I10" s="7">
-        <v>182502</v>
+        <v>171176</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>378</v>
       </c>
       <c r="N10" s="7">
-        <v>325057</v>
+        <v>310596</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,46 +4052,46 @@
         <v>540</v>
       </c>
       <c r="D11" s="7">
-        <v>528546</v>
+        <v>505451</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
       </c>
       <c r="I11" s="7">
-        <v>530441</v>
+        <v>488411</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>1305</v>
       </c>
       <c r="N11" s="7">
-        <v>1058987</v>
+        <v>993862</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4103,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>671100</v>
+        <v>644870</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4124,7 +4118,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>712943</v>
+        <v>659587</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4133,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1384044</v>
+        <v>1304458</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4162,46 +4156,46 @@
         <v>694</v>
       </c>
       <c r="D13" s="7">
-        <v>685308</v>
+        <v>676222</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>1310</v>
       </c>
       <c r="I13" s="7">
-        <v>1020197</v>
+        <v>1045094</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>2004</v>
       </c>
       <c r="N13" s="7">
-        <v>1705505</v>
+        <v>1721316</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,46 +4207,46 @@
         <v>2669</v>
       </c>
       <c r="D14" s="7">
-        <v>2689448</v>
+        <v>2773914</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>4034</v>
       </c>
       <c r="I14" s="7">
-        <v>2769416</v>
+        <v>2600234</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>6703</v>
       </c>
       <c r="N14" s="7">
-        <v>5458864</v>
+        <v>5374148</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4258,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3374756</v>
+        <v>3450136</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4279,7 +4273,7 @@
         <v>5344</v>
       </c>
       <c r="I15" s="7">
-        <v>3789613</v>
+        <v>3645328</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4294,7 +4288,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7164369</v>
+        <v>7095464</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
